--- a/HW5_Perceptron_Learning.xlsx
+++ b/HW5_Perceptron_Learning.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macintosh/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macintosh/Documents/Class 3/Term 2/SC663403 DPDM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C699955-B01B-854E-9CE6-0EE064245AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D19CFDC-8992-284C-A1EB-41C171A99FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{EC28E729-08BF-074C-B60F-AEB2822F04E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>กฎการเรียนรู้เพอร์เซปตรอน</t>
   </si>
@@ -111,13 +111,73 @@
   </si>
   <si>
     <t>x0*w0</t>
+  </si>
+  <si>
+    <t>Actual Positive</t>
+  </si>
+  <si>
+    <t>Tarket Positive</t>
+  </si>
+  <si>
+    <t>Tarket Negative</t>
+  </si>
+  <si>
+    <t>Actual Negative</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>(TP + TN) / All</t>
+  </si>
+  <si>
+    <t>Accuracy =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recall </t>
+  </si>
+  <si>
+    <t>TP / (TP + FN)</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>TP / (TP + FP)</t>
+  </si>
+  <si>
+    <t>Recall =</t>
+  </si>
+  <si>
+    <t>Precision =</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>F Score</t>
+  </si>
+  <si>
+    <t>F1 = 2PR / P + R</t>
+  </si>
+  <si>
+    <t>F1 =</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -150,8 +210,15 @@
       <name val="TH SarabunPSK"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,6 +252,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7E79"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,21 +335,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -280,20 +357,17 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -304,20 +378,49 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF7E79"/>
       <color rgb="FF0432FF"/>
       <color rgb="FFFFFDBA"/>
       <color rgb="FFFFFD78"/>
@@ -347,10 +450,10 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>115453</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>108226</xdr:rowOff>
+      <xdr:rowOff>221511</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -364,8 +467,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4606562" y="756970"/>
-              <a:ext cx="2128285" cy="1044589"/>
+              <a:off x="4604325" y="759207"/>
+              <a:ext cx="2126942" cy="1160560"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -397,6 +500,7 @@
             <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -483,6 +587,7 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -527,6 +632,7 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -545,7 +651,7 @@
                     <m:d>
                       <m:dPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1" baseline="0">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -638,7 +744,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -652,8 +758,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4606562" y="756970"/>
-              <a:ext cx="2128285" cy="1044589"/>
+              <a:off x="4604325" y="759207"/>
+              <a:ext cx="2126942" cy="1160560"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -754,8 +860,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>137855</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -802,6 +908,7 @@
             <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -986,7 +1093,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -1388,1371 +1495,1522 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1348953-8664-FC48-AE02-6268657EF12C}">
-  <dimension ref="B2:N33"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="44" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="14" width="10.83203125" style="5"/>
-    <col min="15" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="14" width="10.83203125" style="2"/>
+    <col min="15" max="16" width="10.83203125" style="1"/>
+    <col min="17" max="17" width="13.83203125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="14.33203125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="14" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="36" x14ac:dyDescent="0.4">
-      <c r="B2" s="14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B4" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="17"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B6" s="2" t="s">
+    <row r="2" spans="2:20" ht="36" x14ac:dyDescent="0.4">
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="13"/>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="R5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B7" s="10" t="s">
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="Q6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="S6" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="10" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13" t="s">
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="12"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B8" s="13" t="s">
+      <c r="M7" s="15"/>
+      <c r="N7" s="16"/>
+      <c r="Q7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="K8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="M8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="13" t="s">
+      <c r="N8" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="18" t="s">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="M9" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="N9" s="19">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B10" s="9">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9">
-        <v>0</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9">
+      <c r="L9" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="N9" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
         <f>B10*L9</f>
         <v>0.5</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="6">
         <f t="shared" ref="F10:G25" si="0">C10*M9</f>
         <v>0</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="6">
         <f>SUM(E10:G10)</f>
         <v>0.5</v>
       </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9" t="str">
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6" t="str">
         <f>IF(H10&gt;=0, "1","0")</f>
         <v>1</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="6">
         <f>0.5*(I10-J10)</f>
         <v>-0.5</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="6">
         <f>L9+$K$10*B10</f>
         <v>0</v>
       </c>
-      <c r="M10" s="9">
-        <f t="shared" ref="M10:N25" si="1">M9+$K$10*C10</f>
-        <v>0.5</v>
-      </c>
-      <c r="N10" s="9">
+      <c r="M10" s="6">
+        <f t="shared" ref="M10:N10" si="1">M9+$K$10*C10</f>
+        <v>0.5</v>
+      </c>
+      <c r="N10" s="6">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B11" s="9">
-        <v>1</v>
-      </c>
-      <c r="C11" s="9">
-        <v>0</v>
-      </c>
-      <c r="D11" s="9">
-        <v>1</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="Q10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10" s="3">
+        <v>1</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6">
         <f t="shared" ref="E11:G33" si="2">B11*L10</f>
         <v>0</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="6">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="6">
         <f t="shared" ref="H11:H33" si="3">SUM(E11:G11)</f>
         <v>0.5</v>
       </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9" t="str">
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6" t="str">
         <f t="shared" ref="J11:J33" si="4">IF(H11&gt;=0, "1","0")</f>
         <v>1</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="6">
         <f t="shared" ref="K11:K33" si="5">0.5*(I11-J11)</f>
         <v>-0.5</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="6">
         <f>L10+$K$11*B11</f>
         <v>-0.5</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="6">
         <f t="shared" ref="M11:N11" si="6">M10+$K$11*C11</f>
         <v>0.5</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B12" s="9">
-        <v>1</v>
-      </c>
-      <c r="C12" s="9">
-        <v>1</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="Q11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0</v>
+      </c>
+      <c r="S11" s="3">
+        <v>3</v>
+      </c>
+      <c r="T11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
         <f t="shared" si="2"/>
         <v>-0.5</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="6">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9" t="str">
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6" t="str">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="6">
         <f t="shared" si="5"/>
         <v>-0.5</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="6">
         <f>L11+$K$12*B12</f>
         <v>-1</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="6">
         <f>M11+$K$12*C12</f>
         <v>0</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="6">
         <f>N11+$K$12*D12</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B13" s="9">
-        <v>1</v>
-      </c>
-      <c r="C13" s="9">
-        <v>1</v>
-      </c>
-      <c r="D13" s="9">
-        <v>1</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="R12" s="2">
+        <v>1</v>
+      </c>
+      <c r="S12" s="2">
+        <v>3</v>
+      </c>
+      <c r="T12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="6">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="I13" s="9">
-        <v>1</v>
-      </c>
-      <c r="J13" s="9" t="str">
+      <c r="I13" s="6">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="6">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="6">
         <f>L12+$K$13*B13</f>
         <v>-0.5</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="6">
         <f t="shared" ref="M13:N13" si="7">M12+$K$13*C13</f>
         <v>0.5</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="6">
         <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B14" s="7">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
         <f>B14*L13</f>
         <v>-0.5</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="4">
         <f t="shared" si="3"/>
         <v>-0.5</v>
       </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="str">
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="4">
         <f>L13+$K$14*B14</f>
         <v>-0.5</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="4">
         <f t="shared" ref="M14:N14" si="8">M13+$K$14*C14</f>
         <v>0.5</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="4">
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B15" s="7">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7">
+      <c r="Q14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4">
         <f t="shared" si="2"/>
         <v>-0.5</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="4">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7" t="str">
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4" t="str">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="4">
         <f t="shared" si="5"/>
         <v>-0.5</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="4">
         <f>L14+$K$15*B15</f>
         <v>-1</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="4">
         <f t="shared" ref="M15:N15" si="9">M14+$K$15*C15</f>
         <v>0.5</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B16" s="7">
-        <v>1</v>
-      </c>
-      <c r="C16" s="7">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7">
+      <c r="Q15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R15" s="2">
+        <f>(R10+S11)/T12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="4">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="4">
         <f t="shared" si="3"/>
         <v>-0.5</v>
       </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="str">
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="4">
         <f>L15+$K$16*B16</f>
         <v>-1</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="4">
         <f t="shared" ref="M16:N16" si="10">M15+$K$16*C16</f>
         <v>0.5</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B17" s="7">
-        <v>1</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="R16" s="24">
+        <f>R15</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="4">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="4">
         <f t="shared" si="3"/>
         <v>-0.5</v>
       </c>
-      <c r="I17" s="7">
-        <v>1</v>
-      </c>
-      <c r="J17" s="7" t="str">
+      <c r="I17" s="4">
+        <v>1</v>
+      </c>
+      <c r="J17" s="4" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="4">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="4">
         <f>L16+$K$17*B17</f>
         <v>-0.5</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="4">
         <f t="shared" ref="M17:N17" si="11">M16+$K$17*C17</f>
         <v>1</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="4">
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B18" s="8">
-        <v>1</v>
-      </c>
-      <c r="C18" s="8">
-        <v>0</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0</v>
-      </c>
-      <c r="E18" s="8">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
         <f t="shared" si="2"/>
         <v>-0.5</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="5">
         <f t="shared" si="3"/>
         <v>-0.5</v>
       </c>
-      <c r="I18" s="8">
-        <v>0</v>
-      </c>
-      <c r="J18" s="8" t="str">
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="5">
         <f>L17+$K$18*B18</f>
         <v>-0.5</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="5">
         <f t="shared" ref="M18:N18" si="12">M17+$K$18*C18</f>
         <v>1</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="5">
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B19" s="8">
-        <v>1</v>
-      </c>
-      <c r="C19" s="8">
-        <v>0</v>
-      </c>
-      <c r="D19" s="8">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8">
+      <c r="Q18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
         <f t="shared" si="2"/>
         <v>-0.5</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="5">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I19" s="8">
-        <v>0</v>
-      </c>
-      <c r="J19" s="8" t="str">
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5" t="str">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="5">
         <f t="shared" si="5"/>
         <v>-0.5</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="5">
         <f>L18+$K$19*B19</f>
         <v>-1</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="5">
         <f t="shared" ref="M19:N19" si="13">M18+$K$19*C19</f>
         <v>1</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B20" s="8">
-        <v>1</v>
-      </c>
-      <c r="C20" s="8">
-        <v>1</v>
-      </c>
-      <c r="D20" s="8">
-        <v>0</v>
-      </c>
-      <c r="E20" s="8">
+      <c r="Q19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R19" s="2">
+        <f>R10/(R10+R11)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I20" s="8">
-        <v>0</v>
-      </c>
-      <c r="J20" s="8" t="str">
+      <c r="I20" s="5">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5" t="str">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="5">
         <f t="shared" si="5"/>
         <v>-0.5</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="5">
         <f>L19+$K$20*B20</f>
         <v>-1.5</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="5">
         <f t="shared" ref="M20:N20" si="14">M19+$K$20*C20</f>
         <v>0.5</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B21" s="8">
-        <v>1</v>
-      </c>
-      <c r="C21" s="8">
-        <v>1</v>
-      </c>
-      <c r="D21" s="8">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8">
+      <c r="R20" s="21">
+        <f>R19</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
+      </c>
+      <c r="E21" s="5">
         <f t="shared" si="2"/>
         <v>-1.5</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="5">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="5">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="I21" s="8">
-        <v>1</v>
-      </c>
-      <c r="J21" s="8" t="str">
+      <c r="I21" s="5">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="5">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="5">
         <f>L20+$K$21*B21</f>
         <v>-1</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M21" s="5">
         <f t="shared" ref="M21:N21" si="15">M20+$K$21*C21</f>
         <v>1</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="5">
         <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B22" s="9">
-        <v>1</v>
-      </c>
-      <c r="C22" s="9">
-        <v>0</v>
-      </c>
-      <c r="D22" s="9">
-        <v>0</v>
-      </c>
-      <c r="E22" s="9">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B22" s="6">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="6">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="I22" s="9">
-        <v>0</v>
-      </c>
-      <c r="J22" s="9" t="str">
+      <c r="I22" s="6">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="6">
         <f>L21+$K$22*B22</f>
         <v>-1</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="6">
         <f t="shared" ref="M22:N22" si="16">M21+$K$22*C22</f>
         <v>1</v>
       </c>
-      <c r="N22" s="9">
+      <c r="N22" s="6">
         <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B23" s="9">
-        <v>1</v>
-      </c>
-      <c r="C23" s="9">
-        <v>0</v>
-      </c>
-      <c r="D23" s="9">
-        <v>1</v>
-      </c>
-      <c r="E23" s="9">
+      <c r="Q22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B23" s="6">
+        <v>1</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="6">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="6">
         <f t="shared" si="3"/>
         <v>-0.5</v>
       </c>
-      <c r="I23" s="9">
-        <v>0</v>
-      </c>
-      <c r="J23" s="9" t="str">
+      <c r="I23" s="6">
+        <v>0</v>
+      </c>
+      <c r="J23" s="6" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="6">
         <f>L22+$K$23*B23</f>
         <v>-1</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="6">
         <f t="shared" ref="M23:N23" si="17">M22+$K$23*C23</f>
         <v>1</v>
       </c>
-      <c r="N23" s="9">
+      <c r="N23" s="6">
         <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B24" s="9">
-        <v>1</v>
-      </c>
-      <c r="C24" s="9">
-        <v>1</v>
-      </c>
-      <c r="D24" s="9">
-        <v>0</v>
-      </c>
-      <c r="E24" s="9">
+      <c r="Q23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R23" s="2">
+        <f>R10/(R10+S10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B24" s="6">
+        <v>1</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I24" s="9">
-        <v>0</v>
-      </c>
-      <c r="J24" s="9" t="str">
+      <c r="I24" s="6">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6" t="str">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="6">
         <f t="shared" si="5"/>
         <v>-0.5</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L24" s="6">
         <f>L23+$K$24*B24</f>
         <v>-1.5</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M24" s="6">
         <f t="shared" ref="M24:N24" si="18">M23+$K$24*C24</f>
         <v>0.5</v>
       </c>
-      <c r="N24" s="9">
+      <c r="N24" s="6">
         <f t="shared" si="18"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B25" s="9">
-        <v>1</v>
-      </c>
-      <c r="C25" s="9">
-        <v>1</v>
-      </c>
-      <c r="D25" s="9">
-        <v>1</v>
-      </c>
-      <c r="E25" s="9">
+      <c r="R24" s="21">
+        <f>R23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B25" s="6">
+        <v>1</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1</v>
+      </c>
+      <c r="D25" s="6">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6">
         <f t="shared" si="2"/>
         <v>-1.5</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="6">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="6">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="6">
         <f t="shared" si="3"/>
         <v>-0.5</v>
       </c>
-      <c r="I25" s="9">
-        <v>1</v>
-      </c>
-      <c r="J25" s="9" t="str">
+      <c r="I25" s="6">
+        <v>1</v>
+      </c>
+      <c r="J25" s="6" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25" s="6">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="L25" s="9">
+      <c r="L25" s="6">
         <f>L24+$K$25*B25</f>
         <v>-1</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M25" s="6">
         <f t="shared" ref="M25:N25" si="19">M24+$K$25*C25</f>
         <v>1</v>
       </c>
-      <c r="N25" s="9">
+      <c r="N25" s="6">
         <f t="shared" si="19"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B26" s="7">
-        <v>1</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0</v>
-      </c>
-      <c r="E26" s="7">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B26" s="4">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="F26" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="7">
+      <c r="F26" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="4">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="str">
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="4">
         <f>L25+$K$26*B26</f>
         <v>-1</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="4">
         <f t="shared" ref="M26:N26" si="20">M25+$K$26*C26</f>
         <v>1</v>
       </c>
-      <c r="N26" s="7">
+      <c r="N26" s="4">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B27" s="7">
-        <v>1</v>
-      </c>
-      <c r="C27" s="7">
-        <v>0</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1</v>
-      </c>
-      <c r="E27" s="7">
+      <c r="Q26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="F27" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="F27" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H27" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I27" s="7">
-        <v>0</v>
-      </c>
-      <c r="J27" s="7" t="str">
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4" t="str">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="4">
         <f t="shared" si="5"/>
         <v>-0.5</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="4">
         <f>L26+$K$27*B27</f>
         <v>-1.5</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="4">
         <f t="shared" ref="M27:N27" si="21">M26+$K$27*C27</f>
         <v>1</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N27" s="4">
         <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B28" s="7">
-        <v>1</v>
-      </c>
-      <c r="C28" s="7">
-        <v>1</v>
-      </c>
-      <c r="D28" s="7">
-        <v>0</v>
-      </c>
-      <c r="E28" s="7">
+      <c r="Q27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R27" s="2">
+        <f>2*R23*R19/(R23+R19)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
         <f t="shared" si="2"/>
         <v>-1.5</v>
       </c>
-      <c r="F28" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G28" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="7">
+      <c r="F28" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="4">
         <f t="shared" si="3"/>
         <v>-0.5</v>
       </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7" t="str">
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="4">
         <f>L27+$K$28*B28</f>
         <v>-1.5</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="4">
         <f>M27+$K$28*C28</f>
         <v>1</v>
       </c>
-      <c r="N28" s="7">
+      <c r="N28" s="4">
         <f>N27+$K$28*D28</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B29" s="7">
-        <v>1</v>
-      </c>
-      <c r="C29" s="7">
-        <v>1</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1</v>
-      </c>
-      <c r="E29" s="7">
+      <c r="R28" s="21">
+        <f>R27</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4">
         <f t="shared" si="2"/>
         <v>-1.5</v>
       </c>
-      <c r="F29" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G29" s="7">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="H29" s="7">
+      <c r="F29" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="H29" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I29" s="7">
-        <v>1</v>
-      </c>
-      <c r="J29" s="7" t="str">
+      <c r="I29" s="4">
+        <v>1</v>
+      </c>
+      <c r="J29" s="4" t="str">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L29" s="4">
         <f>L28+$K$29*B29</f>
         <v>-1.5</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M29" s="4">
         <f t="shared" ref="M29:N29" si="22">M28+$K$29*C29</f>
         <v>1</v>
       </c>
-      <c r="N29" s="7">
+      <c r="N29" s="4">
         <f t="shared" si="22"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B30" s="8">
-        <v>1</v>
-      </c>
-      <c r="C30" s="8">
-        <v>0</v>
-      </c>
-      <c r="D30" s="8">
-        <v>0</v>
-      </c>
-      <c r="E30" s="8">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B30" s="5">
+        <v>1</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5">
         <f t="shared" si="2"/>
         <v>-1.5</v>
       </c>
-      <c r="F30" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="8">
+      <c r="F30" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
         <f t="shared" si="3"/>
         <v>-1.5</v>
       </c>
-      <c r="I30" s="8">
-        <v>0</v>
-      </c>
-      <c r="J30" s="8" t="str">
+      <c r="I30" s="5">
+        <v>0</v>
+      </c>
+      <c r="J30" s="5" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K30" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L30" s="8">
+      <c r="L30" s="5">
         <f>L29+$K$30*B30</f>
         <v>-1.5</v>
       </c>
-      <c r="M30" s="8">
+      <c r="M30" s="5">
         <f t="shared" ref="M30:N30" si="23">M29+$K$30*C30</f>
         <v>1</v>
       </c>
-      <c r="N30" s="8">
+      <c r="N30" s="5">
         <f t="shared" si="23"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B31" s="8">
-        <v>1</v>
-      </c>
-      <c r="C31" s="8">
-        <v>0</v>
-      </c>
-      <c r="D31" s="8">
-        <v>1</v>
-      </c>
-      <c r="E31" s="8">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B31" s="5">
+        <v>1</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5">
         <f t="shared" si="2"/>
         <v>-1.5</v>
       </c>
-      <c r="F31" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="8">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="H31" s="8">
+      <c r="F31" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="H31" s="5">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="I31" s="8">
-        <v>0</v>
-      </c>
-      <c r="J31" s="8" t="str">
+      <c r="I31" s="5">
+        <v>0</v>
+      </c>
+      <c r="J31" s="5" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K31" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L31" s="8">
+      <c r="L31" s="5">
         <f>L30+$K$31*B31</f>
         <v>-1.5</v>
       </c>
-      <c r="M31" s="8">
+      <c r="M31" s="5">
         <f t="shared" ref="M31:N31" si="24">M30+$K$31*C31</f>
         <v>1</v>
       </c>
-      <c r="N31" s="8">
+      <c r="N31" s="5">
         <f t="shared" si="24"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B32" s="8">
-        <v>1</v>
-      </c>
-      <c r="C32" s="8">
-        <v>1</v>
-      </c>
-      <c r="D32" s="8">
-        <v>0</v>
-      </c>
-      <c r="E32" s="8">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="B32" s="5">
+        <v>1</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
+      <c r="E32" s="5">
         <f t="shared" si="2"/>
         <v>-1.5</v>
       </c>
-      <c r="F32" s="8">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G32" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="8">
+      <c r="F32" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
         <f t="shared" si="3"/>
         <v>-0.5</v>
       </c>
-      <c r="I32" s="8">
-        <v>0</v>
-      </c>
-      <c r="J32" s="8" t="str">
+      <c r="I32" s="5">
+        <v>0</v>
+      </c>
+      <c r="J32" s="5" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K32" s="8">
+      <c r="K32" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L32" s="8">
+      <c r="L32" s="5">
         <f>L31+$K$32*B32</f>
         <v>-1.5</v>
       </c>
-      <c r="M32" s="8">
+      <c r="M32" s="5">
         <f t="shared" ref="M32:N32" si="25">M31+$K$32*C32</f>
         <v>1</v>
       </c>
-      <c r="N32" s="8">
+      <c r="N32" s="5">
         <f t="shared" si="25"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B33" s="8">
-        <v>1</v>
-      </c>
-      <c r="C33" s="8">
-        <v>1</v>
-      </c>
-      <c r="D33" s="8">
-        <v>1</v>
-      </c>
-      <c r="E33" s="8">
+      <c r="B33" s="5">
+        <v>1</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1</v>
+      </c>
+      <c r="E33" s="5">
         <f t="shared" si="2"/>
         <v>-1.5</v>
       </c>
-      <c r="F33" s="8">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G33" s="8">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="H33" s="8">
+      <c r="F33" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="H33" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I33" s="8">
-        <v>1</v>
-      </c>
-      <c r="J33" s="8" t="str">
+      <c r="I33" s="5">
+        <v>1</v>
+      </c>
+      <c r="J33" s="5" t="str">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K33" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L33" s="8">
+      <c r="L33" s="5">
         <f>L32+$K$33*B33</f>
         <v>-1.5</v>
       </c>
-      <c r="M33" s="8">
+      <c r="M33" s="5">
         <f t="shared" ref="M33:N33" si="26">M32+$K$33*C33</f>
         <v>1</v>
       </c>
-      <c r="N33" s="8">
+      <c r="N33" s="5">
         <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="H37" s="20"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="H38" s="20"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="H39" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2764,6 +3022,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="54" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>